--- a/pred_ohlcv/54_21/2019-10-31 ORBS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 ORBS ohlcv.xlsx
@@ -1328,7 +1328,7 @@
         <v>798060.5338336647</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>743996.3928336648</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>706055.1138336648</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>706055.1138336648</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>706165.1138336648</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>702165.1138336648</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>702223.1296336649</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>702273.1296336649</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>641878.7606336649</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>641878.7606336649</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>641878.7606336649</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>641878.7606336649</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>641888.7606336649</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>641888.7606336649</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>641888.7606336649</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>641888.7606336649</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>641898.7606336649</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>637488.7606336649</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>612966.7802336649</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>653988.6699336648</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>671276.2529336648</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>621591.4291336648</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>621601.4291336648</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>621601.4291336648</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>597979.3819336648</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>597979.3819336648</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>597989.3819336648</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>546817.5069336648</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>548317.5069336648</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>550113.3740336648</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>265195.2536336648</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>265205.2536336648</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>237489.6891336648</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>415345.0994336648</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>248313.7771336648</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>248323.7771336648</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>248311.4458336648</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>277060.6193336648</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>3943.915833664854</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>3953.915833664854</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-50323.51626633515</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-50323.51626633515</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-50223.51626633515</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-50223.51626633515</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-50213.51626633515</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-111237.1382663352</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-153176.2082663352</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-153166.2082663352</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-151686.2082663352</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-151686.2082663352</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-201364.1933663352</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-201364.1933663352</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-31 ORBS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 ORBS ohlcv.xlsx
@@ -1328,7 +1328,7 @@
         <v>798060.5338336647</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>743996.3928336648</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>706055.1138336648</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>706055.1138336648</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>706165.1138336648</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>702165.1138336648</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>702223.1296336649</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>702273.1296336649</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>641878.7606336649</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>641878.7606336649</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>641878.7606336649</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>641878.7606336649</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>641888.7606336649</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>641888.7606336649</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>641898.7606336649</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>637488.7606336649</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>593996.7802336649</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>612966.7802336649</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>653988.6699336648</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>653988.6699336648</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>621591.4291336648</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>621601.4291336648</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>597979.3819336648</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>597979.3819336648</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>597989.3819336648</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>546817.5069336648</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>548317.5069336648</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>265195.2536336648</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>265205.2536336648</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>237489.6891336648</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>415345.0994336648</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>248313.7771336648</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>248323.7771336648</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>248311.4458336648</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>277060.6193336648</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>277060.6193336648</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>3943.915833664854</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>3953.915833664854</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-50323.51626633515</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-50323.51626633515</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-50223.51626633515</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-50223.51626633515</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-50213.51626633515</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-111237.1382663352</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-153176.2082663352</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-153166.2082663352</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-153166.2082663352</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-151686.2082663352</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-151686.2082663352</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-201364.1933663352</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-201364.1933663352</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
